--- a/Code/Results/Cases/Case_1_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.58472169830568</v>
+        <v>20.52877119971724</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.27392399361858</v>
+        <v>8.40347445535596</v>
       </c>
       <c r="E2">
-        <v>44.34649187269052</v>
+        <v>23.72370644997373</v>
       </c>
       <c r="F2">
-        <v>70.90226321489959</v>
+        <v>47.81549568951952</v>
       </c>
       <c r="G2">
-        <v>1.890391677886634</v>
+        <v>3.647214029169834</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.85580504035273</v>
+        <v>12.9215460309111</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.64502906710949</v>
+        <v>18.85471472147608</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.79888588629065</v>
+        <v>20.1997460090035</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.385254893433949</v>
+        <v>8.283939342072651</v>
       </c>
       <c r="E3">
-        <v>40.81141603283208</v>
+        <v>22.31678931846937</v>
       </c>
       <c r="F3">
-        <v>64.97312745192718</v>
+        <v>46.44910484407647</v>
       </c>
       <c r="G3">
-        <v>1.924779368595682</v>
+        <v>3.65626451365735</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.43659406507259</v>
+        <v>12.63759900783927</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.09630510461154</v>
+        <v>18.94955460255161</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.7761510037166</v>
+        <v>20.00154595407768</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.923920721275302</v>
+        <v>8.213834092094375</v>
       </c>
       <c r="E4">
-        <v>38.61995637973374</v>
+        <v>21.40617921535801</v>
       </c>
       <c r="F4">
-        <v>61.32759208781089</v>
+        <v>45.61402933852462</v>
       </c>
       <c r="G4">
-        <v>1.945354962474135</v>
+        <v>3.662078598073482</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.54572781745057</v>
+        <v>12.46454665655285</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.36717928757124</v>
+        <v>19.0100563128558</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.37192804032417</v>
+        <v>19.92183796870189</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.737976750331853</v>
+        <v>8.186118582628337</v>
       </c>
       <c r="E5">
-        <v>37.71773564249873</v>
+        <v>21.02341869416784</v>
       </c>
       <c r="F5">
-        <v>59.83490776033997</v>
+        <v>45.27525961152626</v>
       </c>
       <c r="G5">
-        <v>1.953661223466219</v>
+        <v>3.664513002440891</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.17661834006908</v>
+        <v>12.39445063803653</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.47659741160338</v>
+        <v>19.03528647337655</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.30454558667755</v>
+        <v>19.90866940148819</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.707206804455554</v>
+        <v>8.181568660057383</v>
       </c>
       <c r="E6">
-        <v>37.56727263192781</v>
+        <v>20.9591590110516</v>
       </c>
       <c r="F6">
-        <v>59.58648261827027</v>
+        <v>45.21911601606983</v>
       </c>
       <c r="G6">
-        <v>1.955037130925178</v>
+        <v>3.664921180349512</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.11493194351053</v>
+        <v>12.38283979161748</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.49472265485092</v>
+        <v>19.03951079528693</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.77071680382103</v>
+        <v>20.00046656249945</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.921405554645428</v>
+        <v>8.213456825392084</v>
       </c>
       <c r="E7">
-        <v>38.60783032542911</v>
+        <v>21.40106434016824</v>
       </c>
       <c r="F7">
-        <v>61.30749638481718</v>
+        <v>45.60945363444272</v>
       </c>
       <c r="G7">
-        <v>1.945467236472165</v>
+        <v>3.662111165008001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.54077582405617</v>
+        <v>12.463599467467</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.36865816394103</v>
+        <v>19.01039424062209</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.9740381553585</v>
+        <v>20.41458971887971</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.960949939765291</v>
+        <v>8.36159212552421</v>
       </c>
       <c r="E8">
-        <v>43.12919759137358</v>
+        <v>23.24834449632139</v>
       </c>
       <c r="F8">
-        <v>68.85479328853064</v>
+        <v>47.34388076428927</v>
       </c>
       <c r="G8">
-        <v>1.902399827432855</v>
+        <v>3.650281576888771</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.36968797061376</v>
+        <v>12.82343200298176</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.80232932696259</v>
+        <v>18.88694718354571</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.34377301097022</v>
+        <v>21.25261361069282</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.28690614955259</v>
+        <v>8.67694675801741</v>
       </c>
       <c r="E9">
-        <v>52.09602861428707</v>
+        <v>26.49771386320795</v>
       </c>
       <c r="F9">
-        <v>84.02478127388216</v>
+        <v>50.75286705898464</v>
       </c>
       <c r="G9">
-        <v>1.809869506436667</v>
+        <v>3.629101248003533</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.87931126507865</v>
+        <v>13.53504975857958</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.6033087000576</v>
+        <v>18.66266768458383</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.6350905094793</v>
+        <v>21.87822169698809</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14.21107760077679</v>
+        <v>8.922010676408116</v>
       </c>
       <c r="E10">
-        <v>59.41753195085938</v>
+        <v>28.65614122536401</v>
       </c>
       <c r="F10">
-        <v>96.440676969677</v>
+        <v>53.23322908124866</v>
       </c>
       <c r="G10">
-        <v>1.7275188744926</v>
+        <v>3.614738636522294</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.60083358342373</v>
+        <v>14.05602518312536</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.573227599267758</v>
+        <v>18.50844322022803</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.24504387388632</v>
+        <v>22.16375285707459</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.23129860061316</v>
+        <v>9.03599751092295</v>
       </c>
       <c r="E11">
-        <v>63.28496331538373</v>
+        <v>29.58838773782352</v>
       </c>
       <c r="F11">
-        <v>102.9488196981744</v>
+        <v>54.35088500097046</v>
       </c>
       <c r="G11">
-        <v>1.681713525552292</v>
+        <v>3.608458073084156</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.9735230630622</v>
+        <v>14.29154473300158</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.020870787268489</v>
+        <v>18.44050856848247</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.89193725686835</v>
+        <v>22.27191196693516</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.66060153024124</v>
+        <v>9.079487225540987</v>
       </c>
       <c r="E12">
-        <v>64.91208216249194</v>
+        <v>29.93428267719133</v>
       </c>
       <c r="F12">
-        <v>105.6679415512679</v>
+        <v>54.77217118800178</v>
       </c>
       <c r="G12">
-        <v>1.661997908150613</v>
+        <v>3.606115616587553</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.53572813009451</v>
+        <v>14.38043407376711</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.788350417714245</v>
+        <v>18.41509785383337</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.75030357815935</v>
+        <v>22.24861798626407</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.56553342892132</v>
+        <v>9.070107021903983</v>
       </c>
       <c r="E13">
-        <v>64.55171991704013</v>
+        <v>29.86010470222064</v>
       </c>
       <c r="F13">
-        <v>105.0668858474482</v>
+        <v>54.68153235181037</v>
       </c>
       <c r="G13">
-        <v>1.666386271929204</v>
+        <v>3.606618520380004</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.41203858774475</v>
+        <v>14.36130465377289</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.839819512984349</v>
+        <v>18.4205565914113</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29729788398203</v>
+        <v>22.17265103993087</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.26552284393721</v>
+        <v>9.039569114862335</v>
       </c>
       <c r="E14">
-        <v>63.41466579498334</v>
+        <v>29.61698745580489</v>
       </c>
       <c r="F14">
-        <v>103.1660428377199</v>
+        <v>54.3855856859205</v>
       </c>
       <c r="G14">
-        <v>1.680151328631842</v>
+        <v>3.608264642254281</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.01868450174078</v>
+        <v>14.29886412641347</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.002327385763916</v>
+        <v>18.43841173624822</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.02573296713126</v>
+        <v>22.12612068626625</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.08848269505991</v>
+        <v>9.020905101796711</v>
       </c>
       <c r="E15">
-        <v>62.74372658974898</v>
+        <v>29.46714350633387</v>
       </c>
       <c r="F15">
-        <v>102.0415437981933</v>
+        <v>54.20404485099917</v>
       </c>
       <c r="G15">
-        <v>1.688214596136434</v>
+        <v>3.609277593007307</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.78443479728292</v>
+        <v>14.26057642850587</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.098254925010929</v>
+        <v>18.44938935713652</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.5334558014943</v>
+        <v>21.85957180067711</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14.14869036128428</v>
+        <v>8.914608804307871</v>
       </c>
       <c r="E16">
-        <v>59.18087429843774</v>
+        <v>28.5942186656289</v>
       </c>
       <c r="F16">
-        <v>96.04079301594074</v>
+        <v>53.15993685908701</v>
       </c>
       <c r="G16">
-        <v>1.730271819518988</v>
+        <v>3.615154132994953</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.51526739383995</v>
+        <v>14.04059638129249</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.606933845130287</v>
+        <v>18.51292721522842</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.65599249644355</v>
+        <v>21.69622070641336</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13.61877842486087</v>
+        <v>8.850016428286441</v>
       </c>
       <c r="E17">
-        <v>57.1693110185513</v>
+        <v>28.04599977418735</v>
       </c>
       <c r="F17">
-        <v>92.63628607903237</v>
+        <v>52.51637223513656</v>
       </c>
       <c r="G17">
-        <v>1.753431092222039</v>
+        <v>3.618823638672938</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.78112431181187</v>
+        <v>13.90520599527231</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.892618051103847</v>
+        <v>18.55247144165765</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.16013760363729</v>
+        <v>21.60235966290239</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13.32576027944288</v>
+        <v>8.813102588055839</v>
       </c>
       <c r="E18">
-        <v>56.0556375154912</v>
+        <v>27.72600577262856</v>
       </c>
       <c r="F18">
-        <v>90.74801860421573</v>
+        <v>52.14522845973172</v>
       </c>
       <c r="G18">
-        <v>1.766064990203757</v>
+        <v>3.62095809304993</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.36959937026982</v>
+        <v>13.82719894262459</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.05000298146771</v>
+        <v>18.57542576130939</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.99342513147425</v>
+        <v>21.57059921583409</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13.22821600681441</v>
+        <v>8.80064613681968</v>
       </c>
       <c r="E19">
-        <v>55.68463900059702</v>
+        <v>27.61685854786493</v>
       </c>
       <c r="F19">
-        <v>90.11857776843014</v>
+        <v>52.01940996994744</v>
       </c>
       <c r="G19">
-        <v>1.770243550814027</v>
+        <v>3.621684895267852</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.23173452146843</v>
+        <v>13.8007667377874</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.10228471981172</v>
+        <v>18.5832338360242</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.74839710647571</v>
+        <v>21.71360069932867</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>13.67387845006529</v>
+        <v>8.856868020008534</v>
       </c>
       <c r="E20">
-        <v>57.37860884213316</v>
+        <v>28.10484220191281</v>
       </c>
       <c r="F20">
-        <v>92.99092166385503</v>
+        <v>52.58498556394762</v>
       </c>
       <c r="G20">
-        <v>1.751041678984644</v>
+        <v>3.618430548792337</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.85806807683861</v>
+        <v>13.91963304149242</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.862971483510369</v>
+        <v>18.54824024180638</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.42904003997246</v>
+        <v>22.1949642152415</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.35215216578578</v>
+        <v>9.048530286117455</v>
       </c>
       <c r="E21">
-        <v>63.74297761650468</v>
+        <v>29.68859016720652</v>
       </c>
       <c r="F21">
-        <v>103.7155401157469</v>
+        <v>54.47256829238326</v>
       </c>
       <c r="G21">
-        <v>1.676189654041711</v>
+        <v>3.607780167519791</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.13273517824193</v>
+        <v>14.31721312555448</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.955393016462516</v>
+        <v>18.4331587476237</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.4427171452491</v>
+        <v>22.50972116845561</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.74739675401061</v>
+        <v>9.175673132437328</v>
       </c>
       <c r="E22">
-        <v>69.03564555112408</v>
+        <v>30.68213305415438</v>
       </c>
       <c r="F22">
-        <v>112.4902536488971</v>
+        <v>55.69470706318057</v>
       </c>
       <c r="G22">
-        <v>1.610936089187718</v>
+        <v>3.60102827211476</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.91579838704597</v>
+        <v>14.57528940309803</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.202159994929154</v>
+        <v>18.35977806029605</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.32556058208056</v>
+        <v>22.34174721095565</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.95567916726818</v>
+        <v>9.10765404680212</v>
       </c>
       <c r="E23">
-        <v>66.03084458460089</v>
+        <v>30.15565447882279</v>
       </c>
       <c r="F23">
-        <v>107.5293937967031</v>
+        <v>55.04360731423833</v>
       </c>
       <c r="G23">
-        <v>1.648296309729881</v>
+        <v>3.604612964586807</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.91666129874291</v>
+        <v>14.43773729831933</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.628731845392679</v>
+        <v>18.39877678077319</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.70659529456078</v>
+        <v>21.70574303591789</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13.64893266842545</v>
+        <v>8.853769723816844</v>
       </c>
       <c r="E24">
-        <v>57.28385653376844</v>
+        <v>28.0782545407373</v>
       </c>
       <c r="F24">
-        <v>92.83038291787661</v>
+        <v>52.55396902805878</v>
       </c>
       <c r="G24">
-        <v>1.75212399023409</v>
+        <v>3.61860818741996</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.82325019502414</v>
+        <v>13.91311109478761</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.876395450682111</v>
+        <v>18.55015248220247</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.1654259401735</v>
+        <v>21.02374180261979</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.63814904313765</v>
+        <v>8.589152012394875</v>
       </c>
       <c r="E25">
-        <v>49.61153280238329</v>
+        <v>25.65883071772554</v>
       </c>
       <c r="F25">
-        <v>79.80688268629245</v>
+        <v>49.83292485683926</v>
       </c>
       <c r="G25">
-        <v>1.836445999582329</v>
+        <v>3.634618312521695</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.92430807794207</v>
+        <v>13.3424795398714</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.94409363120447</v>
+        <v>18.72146612733381</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.52877119971724</v>
+        <v>23.58472169830566</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.40347445535596</v>
+        <v>10.27392399361852</v>
       </c>
       <c r="E2">
-        <v>23.72370644997373</v>
+        <v>44.34649187269056</v>
       </c>
       <c r="F2">
-        <v>47.81549568951952</v>
+        <v>70.90226321489959</v>
       </c>
       <c r="G2">
-        <v>3.647214029169834</v>
+        <v>1.890391677886764</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.9215460309111</v>
+        <v>17.85580504035276</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.85471472147608</v>
+        <v>11.64502906710953</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.1997460090035</v>
+        <v>21.79888588629064</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.283939342072651</v>
+        <v>9.385254893433936</v>
       </c>
       <c r="E3">
-        <v>22.31678931846937</v>
+        <v>40.81141603283224</v>
       </c>
       <c r="F3">
-        <v>46.44910484407647</v>
+        <v>64.97312745192731</v>
       </c>
       <c r="G3">
-        <v>3.65626451365735</v>
+        <v>1.924779368595417</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.63759900783927</v>
+        <v>16.43659406507262</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.94955460255161</v>
+        <v>12.09630510461154</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.00154595407768</v>
+        <v>20.7761510037166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.213834092094375</v>
+        <v>8.923920721275334</v>
       </c>
       <c r="E4">
-        <v>21.40617921535801</v>
+        <v>38.61995637973388</v>
       </c>
       <c r="F4">
-        <v>45.61402933852462</v>
+        <v>61.32759208781098</v>
       </c>
       <c r="G4">
-        <v>3.662078598073482</v>
+        <v>1.945354962474274</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.46454665655285</v>
+        <v>15.54572781745063</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.0100563128558</v>
+        <v>12.36717928757121</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.92183796870189</v>
+        <v>20.37192804032419</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.186118582628337</v>
+        <v>8.737976750331823</v>
       </c>
       <c r="E5">
-        <v>21.02341869416784</v>
+        <v>37.71773564249858</v>
       </c>
       <c r="F5">
-        <v>45.27525961152626</v>
+        <v>59.83490776033985</v>
       </c>
       <c r="G5">
-        <v>3.664513002440891</v>
+        <v>1.953661223466478</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.39445063803653</v>
+        <v>15.17661834006903</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.03528647337655</v>
+        <v>12.47659741160338</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.90866940148819</v>
+        <v>20.30454558667756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.181568660057383</v>
+        <v>8.707206804455577</v>
       </c>
       <c r="E6">
-        <v>20.9591590110516</v>
+        <v>37.56727263192786</v>
       </c>
       <c r="F6">
-        <v>45.21911601606983</v>
+        <v>59.58648261827029</v>
       </c>
       <c r="G6">
-        <v>3.664921180349512</v>
+        <v>1.955037130925459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.38283979161748</v>
+        <v>15.11493194351051</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.03951079528693</v>
+        <v>12.49472265485092</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.00046656249945</v>
+        <v>20.77071680382102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.213456825392084</v>
+        <v>8.921405554645427</v>
       </c>
       <c r="E7">
-        <v>21.40106434016824</v>
+        <v>38.60783032542921</v>
       </c>
       <c r="F7">
-        <v>45.60945363444272</v>
+        <v>61.30749638481724</v>
       </c>
       <c r="G7">
-        <v>3.662111165008001</v>
+        <v>1.9454672364723</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.463599467467</v>
+        <v>15.5407758240562</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.01039424062209</v>
+        <v>12.36865816394103</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.41458971887971</v>
+        <v>22.97403815535845</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.36159212552421</v>
+        <v>9.960949939765255</v>
       </c>
       <c r="E8">
-        <v>23.24834449632139</v>
+        <v>43.12919759137356</v>
       </c>
       <c r="F8">
-        <v>47.34388076428927</v>
+        <v>68.85479328853053</v>
       </c>
       <c r="G8">
-        <v>3.650281576888771</v>
+        <v>1.90239982743274</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.82343200298176</v>
+        <v>17.36968797061371</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.88694718354571</v>
+        <v>11.80232932696262</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.25261361069282</v>
+        <v>27.34377301097014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.67694675801741</v>
+        <v>12.28690614955256</v>
       </c>
       <c r="E9">
-        <v>26.49771386320795</v>
+        <v>52.09602861428691</v>
       </c>
       <c r="F9">
-        <v>50.75286705898464</v>
+        <v>84.02478127388177</v>
       </c>
       <c r="G9">
-        <v>3.629101248003533</v>
+        <v>1.809869506436506</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.53504975857958</v>
+        <v>20.87931126507862</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.66266768458383</v>
+        <v>10.6033087000577</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.87822169698809</v>
+        <v>30.63509050947933</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.922010676408116</v>
+        <v>14.21107760077682</v>
       </c>
       <c r="E10">
-        <v>28.65614122536401</v>
+        <v>59.41753195085907</v>
       </c>
       <c r="F10">
-        <v>53.23322908124866</v>
+        <v>96.44067696967686</v>
       </c>
       <c r="G10">
-        <v>3.614738636522294</v>
+        <v>1.72751887449268</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.05602518312536</v>
+        <v>23.60083358342376</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.50844322022803</v>
+        <v>9.573227599267724</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.16375285707459</v>
+        <v>32.24504387388633</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.03599751092295</v>
+        <v>15.23129860061325</v>
       </c>
       <c r="E11">
-        <v>29.58838773782352</v>
+        <v>63.28496331538398</v>
       </c>
       <c r="F11">
-        <v>54.35088500097046</v>
+        <v>102.9488196981745</v>
       </c>
       <c r="G11">
-        <v>3.608458073084156</v>
+        <v>1.681713525552275</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.29154473300158</v>
+        <v>24.9735230630622</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.44050856848247</v>
+        <v>9.020870787268521</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.27191196693516</v>
+        <v>32.89193725686827</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.079487225540987</v>
+        <v>15.66060153024116</v>
       </c>
       <c r="E12">
-        <v>29.93428267719133</v>
+        <v>64.91208216249179</v>
       </c>
       <c r="F12">
-        <v>54.77217118800178</v>
+        <v>105.6679415512677</v>
       </c>
       <c r="G12">
-        <v>3.606115616587553</v>
+        <v>1.661997908150499</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.38043407376711</v>
+        <v>25.53572813009444</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.41509785383337</v>
+        <v>8.788350417714245</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.24861798626407</v>
+        <v>32.75030357815935</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.070107021903983</v>
+        <v>15.56553342892131</v>
       </c>
       <c r="E13">
-        <v>29.86010470222064</v>
+        <v>64.55171991703988</v>
       </c>
       <c r="F13">
-        <v>54.68153235181037</v>
+        <v>105.0668858474478</v>
       </c>
       <c r="G13">
-        <v>3.606618520380004</v>
+        <v>1.666386271929169</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.36130465377289</v>
+        <v>25.41203858774464</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.4205565914113</v>
+        <v>8.839819512984452</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.17265103993087</v>
+        <v>32.29729788398203</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.039569114862335</v>
+        <v>15.26552284393722</v>
       </c>
       <c r="E14">
-        <v>29.61698745580489</v>
+        <v>63.41466579498315</v>
       </c>
       <c r="F14">
-        <v>54.3855856859205</v>
+        <v>103.1660428377198</v>
       </c>
       <c r="G14">
-        <v>3.608264642254281</v>
+        <v>1.680151328631985</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.29886412641347</v>
+        <v>25.01868450174078</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.43841173624822</v>
+        <v>9.002327385763882</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.12612068626625</v>
+        <v>32.02573296713108</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.020905101796711</v>
+        <v>15.08848269505983</v>
       </c>
       <c r="E15">
-        <v>29.46714350633387</v>
+        <v>62.74372658974845</v>
       </c>
       <c r="F15">
-        <v>54.20404485099917</v>
+        <v>102.0415437981925</v>
       </c>
       <c r="G15">
-        <v>3.609277593007307</v>
+        <v>1.688214596136439</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.26057642850587</v>
+        <v>24.78443479728276</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.44938935713652</v>
+        <v>9.098254925011064</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.85957180067711</v>
+        <v>30.53345580149435</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.914608804307871</v>
+        <v>14.14869036128429</v>
       </c>
       <c r="E16">
-        <v>28.5942186656289</v>
+        <v>59.18087429843774</v>
       </c>
       <c r="F16">
-        <v>53.15993685908701</v>
+        <v>96.04079301594072</v>
       </c>
       <c r="G16">
-        <v>3.615154132994953</v>
+        <v>1.730271819518935</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.04059638129249</v>
+        <v>23.51526739383999</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.51292721522842</v>
+        <v>9.606933845130317</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.69622070641336</v>
+        <v>29.65599249644363</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.850016428286441</v>
+        <v>13.61877842486093</v>
       </c>
       <c r="E17">
-        <v>28.04599977418735</v>
+        <v>57.16931101855146</v>
       </c>
       <c r="F17">
-        <v>52.51637223513656</v>
+        <v>92.63628607903274</v>
       </c>
       <c r="G17">
-        <v>3.618823638672938</v>
+        <v>1.753431092221959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.90520599527231</v>
+        <v>22.78112431181187</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.55247144165765</v>
+        <v>9.892618051103714</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.60235966290239</v>
+        <v>29.16013760363732</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.813102588055839</v>
+        <v>13.32576027944295</v>
       </c>
       <c r="E18">
-        <v>27.72600577262856</v>
+        <v>56.05563751549144</v>
       </c>
       <c r="F18">
-        <v>52.14522845973172</v>
+        <v>90.74801860421603</v>
       </c>
       <c r="G18">
-        <v>3.62095809304993</v>
+        <v>1.766064990203915</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.82719894262459</v>
+        <v>22.36959937026987</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.57542576130939</v>
+        <v>10.0500029814677</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.57059921583409</v>
+        <v>28.99342513147427</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.80064613681968</v>
+        <v>13.22821600681449</v>
       </c>
       <c r="E19">
-        <v>27.61685854786493</v>
+        <v>55.68463900059699</v>
       </c>
       <c r="F19">
-        <v>52.01940996994744</v>
+        <v>90.11857776843019</v>
       </c>
       <c r="G19">
-        <v>3.621684895267852</v>
+        <v>1.770243550814446</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.8007667377874</v>
+        <v>22.23173452146845</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.5832338360242</v>
+        <v>10.10228471981172</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.71360069932867</v>
+        <v>29.74839710647584</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.856868020008534</v>
+        <v>13.67387845006527</v>
       </c>
       <c r="E20">
-        <v>28.10484220191281</v>
+        <v>57.37860884213313</v>
       </c>
       <c r="F20">
-        <v>52.58498556394762</v>
+        <v>92.9909216638552</v>
       </c>
       <c r="G20">
-        <v>3.618430548792337</v>
+        <v>1.75104167898457</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.91963304149242</v>
+        <v>22.8580680768386</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.54824024180638</v>
+        <v>9.86297148351033</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.1949642152415</v>
+        <v>32.42904003997248</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.048530286117455</v>
+        <v>15.35215216578587</v>
       </c>
       <c r="E21">
-        <v>29.68859016720652</v>
+        <v>63.7429776165045</v>
       </c>
       <c r="F21">
-        <v>54.47256829238326</v>
+        <v>103.7155401157467</v>
       </c>
       <c r="G21">
-        <v>3.607780167519791</v>
+        <v>1.676189654041774</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.31721312555448</v>
+        <v>25.13273517824193</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.4331587476237</v>
+        <v>8.955393016462516</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.50972116845561</v>
+        <v>34.44271714524938</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.175673132437328</v>
+        <v>16.74739675401084</v>
       </c>
       <c r="E22">
-        <v>30.68213305415438</v>
+        <v>69.03564555112493</v>
       </c>
       <c r="F22">
-        <v>55.69470706318057</v>
+        <v>112.4902536488985</v>
       </c>
       <c r="G22">
-        <v>3.60102827211476</v>
+        <v>1.610936089187754</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.57528940309803</v>
+        <v>26.91579838704615</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.35977806029605</v>
+        <v>8.202159994929014</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.34174721095565</v>
+        <v>33.32556058208061</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.10765404680212</v>
+        <v>15.95567916726819</v>
       </c>
       <c r="E23">
-        <v>30.15565447882279</v>
+        <v>66.03084458460089</v>
       </c>
       <c r="F23">
-        <v>55.04360731423833</v>
+        <v>107.5293937967032</v>
       </c>
       <c r="G23">
-        <v>3.604612964586807</v>
+        <v>1.648296309729996</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.43773729831933</v>
+        <v>25.91666129874293</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.39877678077319</v>
+        <v>8.628731845392679</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.70574303591789</v>
+        <v>29.70659529456078</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.853769723816844</v>
+        <v>13.64893266842546</v>
       </c>
       <c r="E24">
-        <v>28.0782545407373</v>
+        <v>57.28385653376829</v>
       </c>
       <c r="F24">
-        <v>52.55396902805878</v>
+        <v>92.83038291787639</v>
       </c>
       <c r="G24">
-        <v>3.61860818741996</v>
+        <v>1.752123990234021</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.91311109478761</v>
+        <v>22.82325019502413</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.55015248220247</v>
+        <v>9.876395450682143</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.02374180261979</v>
+        <v>26.16542594017351</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.589152012394875</v>
+        <v>11.63814904313765</v>
       </c>
       <c r="E25">
-        <v>25.65883071772554</v>
+        <v>49.61153280238352</v>
       </c>
       <c r="F25">
-        <v>49.83292485683926</v>
+        <v>79.8068826862927</v>
       </c>
       <c r="G25">
-        <v>3.634618312521695</v>
+        <v>1.836445999582462</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.3424795398714</v>
+        <v>19.9243080779421</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.72146612733381</v>
+        <v>10.94409363120447</v>
       </c>
       <c r="O25">
         <v>0</v>
